--- a/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,10 +49,19 @@
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>shame</t>
@@ -61,214 +70,220 @@
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>shortage</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>corona</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>strong</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>better</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>dear</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>energy</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>sure</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increased</t>
   </si>
   <si>
     <t>essential</t>
   </si>
   <si>
-    <t>want</t>
+    <t>online</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>everyone</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>delivery</t>
   </si>
   <si>
     <t>local</t>
@@ -277,43 +292,34 @@
     <t>retail</t>
   </si>
   <si>
-    <t>new</t>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>stay</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>stock</t>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>consumer</t>
   </si>
   <si>
     <t>us</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>go</t>
   </si>
   <si>
     <t>food</t>
@@ -688,10 +694,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -749,13 +755,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -767,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -799,13 +805,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -849,13 +855,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8076923076923077</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -867,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -891,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -899,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7241379310344828</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -917,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -949,13 +955,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7123287671232876</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C7">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -967,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8888888888888888</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
         <v>24</v>
@@ -991,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -999,13 +1005,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6756756756756757</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1017,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.8723404255319149</v>
+        <v>0.8983050847457628</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1049,37 +1055,37 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="L9">
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="M9">
         <v>24</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>15</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9">
-        <v>0.8636363636363636</v>
-      </c>
-      <c r="L9">
-        <v>19</v>
-      </c>
-      <c r="M9">
-        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1099,13 +1105,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6052631578947368</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,31 +1123,31 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L10">
+        <v>97</v>
+      </c>
+      <c r="M10">
+        <v>97</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>15</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L10">
-        <v>31</v>
-      </c>
-      <c r="M10">
-        <v>31</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1149,13 +1155,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5675675675675675</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1167,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8482142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1191,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1199,13 +1205,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5641025641025641</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1217,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8359375</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1241,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1249,13 +1255,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4563758389261745</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C13">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="D13">
-        <v>68</v>
+        <v>234</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.8292682926829268</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L13">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1291,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1299,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4418604651162791</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C14">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="D14">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1317,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>288</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.828125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1341,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,16 +1376,16 @@
         <v>31</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8275862068965517</v>
+        <v>0.8083333333333333</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1391,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1399,13 +1405,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3866666666666667</v>
+        <v>0.3825503355704698</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1417,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H16">
+        <v>92</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="L16">
         <v>46</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L16">
-        <v>23</v>
-      </c>
       <c r="M16">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1449,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3777777777777778</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1467,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8166666666666667</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L17">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1491,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1499,13 +1505,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3728813559322034</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1517,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.8148148148148148</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L18">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1541,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1549,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3544973544973545</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C19">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1567,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.7887323943661971</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L19">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="M19">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1591,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1599,13 +1605,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3376623376623377</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1617,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1641,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1649,13 +1655,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2896825396825397</v>
+        <v>0.3375</v>
       </c>
       <c r="C21">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>179</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.7735849056603774</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L21">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="M21">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1691,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1699,37 +1705,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2658227848101266</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L22">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1741,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1749,13 +1755,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1528150134048257</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C23">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1767,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7222222222222222</v>
+        <v>0.7375</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>118</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1791,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1799,37 +1805,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01053639846743295</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="E24">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>3099</v>
+        <v>182</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.7058823529411765</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1841,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1849,37 +1855,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009751176866173503</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="E25">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2945</v>
+        <v>310</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.7021276595744681</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L25">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1891,12 +1897,36 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.01118568232662192</v>
+      </c>
+      <c r="C26">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>107</v>
+      </c>
+      <c r="E26">
+        <v>0.67</v>
+      </c>
+      <c r="F26">
+        <v>0.33</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3094</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K26">
         <v>0.6785714285714286</v>
@@ -1921,17 +1951,41 @@
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.01108312342569269</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>180</v>
+      </c>
+      <c r="E27">
+        <v>0.88</v>
+      </c>
+      <c r="F27">
+        <v>0.12</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1963</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.6744186046511628</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1943,21 +1997,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.008406186953597848</v>
+      </c>
+      <c r="C28">
+        <v>25</v>
+      </c>
+      <c r="D28">
+        <v>158</v>
+      </c>
+      <c r="E28">
+        <v>0.84</v>
+      </c>
+      <c r="F28">
+        <v>0.16</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2949</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.660574412532637</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L28">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M28">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1969,12 +2047,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K29">
         <v>0.6470588235294118</v>
@@ -2000,16 +2078,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.6363636363636364</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2021,21 +2099,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="L31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2047,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.625</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L32">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2073,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.62</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2099,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.6129032258064516</v>
+        <v>0.6</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2125,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.5955056179775281</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L35">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="M35">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2151,21 +2229,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.5864406779661017</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L36">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M36">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2177,21 +2255,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.5735294117647058</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L37">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="M37">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2203,21 +2281,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>145</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.5538461538461539</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2229,21 +2307,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.55</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L39">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="M39">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2255,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.547945205479452</v>
+        <v>0.525</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2281,21 +2359,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.5111111111111111</v>
+        <v>0.525</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2307,21 +2385,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.5</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2338,16 +2416,16 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.4871794871794872</v>
+        <v>0.5188284518828452</v>
       </c>
       <c r="L43">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2359,21 +2437,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.4811715481171548</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="L44">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2385,21 +2463,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>124</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2411,21 +2489,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.4262295081967213</v>
+        <v>0.484375</v>
       </c>
       <c r="L46">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M46">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2437,21 +2515,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.421875</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L47">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2463,47 +2541,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K48">
-        <v>0.3380281690140845</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L48">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.2440944881889764</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L49">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M49">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2515,73 +2593,73 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.2421052631578947</v>
+        <v>0.3098591549295774</v>
       </c>
       <c r="L50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M50">
         <v>23</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.1923076923076923</v>
+        <v>0.2204724409448819</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.184652278177458</v>
+        <v>0.2086330935251799</v>
       </c>
       <c r="L52">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M52">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="N52">
         <v>0.99</v>
@@ -2593,73 +2671,73 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.1785714285714286</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.1775700934579439</v>
+        <v>0.1754807692307692</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>176</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.1706730769230769</v>
+        <v>0.172093023255814</v>
       </c>
       <c r="L55">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="M55">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2671,255 +2749,255 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>345</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>0.154320987654321</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N56">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O56">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>137</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>0.1518987341772152</v>
+        <v>0.1532846715328467</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N57">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>0.1495327102803738</v>
+        <v>0.1419753086419753</v>
       </c>
       <c r="L58">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N58">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O58">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K59">
-        <v>0.1266375545851528</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="L59">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N59">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O59">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P59" t="b">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>200</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K60">
-        <v>0.1212121212121212</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L60">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M60">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>145</v>
+        <v>284</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K61">
-        <v>0.1140939597315436</v>
+        <v>0.1231802911534155</v>
       </c>
       <c r="L61">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M61">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>792</v>
+        <v>783</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K62">
-        <v>0.1111111111111111</v>
+        <v>0.1220930232558139</v>
       </c>
       <c r="L62">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="N62">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>800</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K63">
-        <v>0.09876543209876543</v>
+        <v>0.1101321585903084</v>
       </c>
       <c r="L63">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M63">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N63">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="O63">
-        <v>0.08999999999999997</v>
+        <v>0.11</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>292</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K64">
-        <v>0.09161490683229814</v>
+        <v>0.1013071895424837</v>
       </c>
       <c r="L64">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M64">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="N64">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O64">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>585</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K65">
-        <v>0.08614232209737828</v>
+        <v>0.09211986681465038</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2931,21 +3009,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>244</v>
+        <v>818</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K66">
-        <v>0.07630057803468208</v>
+        <v>0.08901734104046242</v>
       </c>
       <c r="L66">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="M66">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="N66">
         <v>0.97</v>
@@ -2957,241 +3035,241 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>799</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K67">
-        <v>0.07602064758329423</v>
+        <v>0.08453608247422681</v>
       </c>
       <c r="L67">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="M67">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="N67">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O67">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>1969</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K68">
-        <v>0.07516339869281045</v>
+        <v>0.07561728395061729</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N68">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O68">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>283</v>
+        <v>599</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="K69">
-        <v>0.0743801652892562</v>
+        <v>0.07449316360207449</v>
       </c>
       <c r="L69">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="M69">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>448</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K70">
-        <v>0.05337078651685393</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L70">
         <v>19</v>
       </c>
       <c r="M70">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N70">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="O70">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>337</v>
+        <v>247</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="K71">
-        <v>0.04320987654320987</v>
+        <v>0.04682622268470343</v>
       </c>
       <c r="L71">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="M71">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="N71">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="O71">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>2945</v>
+        <v>916</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="K72">
-        <v>0.04058272632674298</v>
+        <v>0.04315379623621025</v>
       </c>
       <c r="L72">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="M72">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="N72">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="O72">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>922</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K73">
-        <v>0.03552397868561279</v>
+        <v>0.03886925795053003</v>
       </c>
       <c r="L73">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M73">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N73">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="O73">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="K74">
-        <v>0.02339688041594454</v>
+        <v>0.02274162981680354</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="M74">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="N74">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="O74">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1127</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="K75">
-        <v>0.02178030303030303</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L75">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="M75">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="N75">
-        <v>0.68</v>
+        <v>0.79</v>
       </c>
       <c r="O75">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>3099</v>
+        <v>1133</v>
       </c>
     </row>
   </sheetData>
